--- a/TwoMonthsCalendar/document/Readme_使い方.xlsx
+++ b/TwoMonthsCalendar/document/Readme_使い方.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\necot\Documents\03_cathut\git\TwoMonthesCalendar\TwoMonthesCalendar\bin\Release\net6.0-windows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\necot\Documents\03_cathut\git\TwoMonthsCalendar\TwoMonthsCalendar\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC984EAF-6CE0-4BAD-B80F-CD9BECD21735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1240B39-76C2-4C1A-AD81-C4910F442FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>TwoMonthesCalendar.exeをダブルクリックすることでデスクトップ上にカレンダーが表示されます。</t>
     <phoneticPr fontId="1"/>
@@ -109,6 +109,23 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Horizontal Layout(Vertical Layout)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横配置表示イメージ　Horizontal layout display image</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -184,22 +201,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>162038</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>486020</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95407</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="13" name="図 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47092907-970E-D467-1EDA-64869817FBC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D9B8C32-AB01-E2B7-DEB5-385730AA9AF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -221,8 +238,58 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="730250" y="2724150"/>
-          <a:ext cx="7737475" cy="6962888"/>
+          <a:off x="790575" y="10639425"/>
+          <a:ext cx="1752845" cy="1124107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>250314</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCD21284-41FE-4B17-996F-7B57631AD0E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400049" y="15049500"/>
+          <a:ext cx="8079865" cy="2190750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -234,22 +301,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>121425</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>130950</xdr:rowOff>
+      <xdr:colOff>52350</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>14249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>200152</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>36432</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>645928</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
+        <xdr:cNvPr id="15" name="図 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC983244-04FD-076E-689D-FA9E9750A9BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D8D6AB4-83C4-4EC4-937E-EE7AECEE8648}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -258,7 +325,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -271,63 +338,13 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="807225" y="10132200"/>
-          <a:ext cx="6250927" cy="1810482"/>
+          <a:off x="738150" y="12396749"/>
+          <a:ext cx="1965178" cy="966825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>109500</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>71400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>500271</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>42921</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB4678B-A1ED-E8D7-30B0-E413E9E83D3A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="795300" y="12453900"/>
-          <a:ext cx="1762371" cy="685896"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
+        <a:ln w="15875">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
@@ -339,14 +356,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -362,7 +379,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847850" y="11344275"/>
+          <a:off x="1400175" y="11344275"/>
           <a:ext cx="0" cy="1028700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -390,6 +407,959 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C805F9BD-3246-49D6-D967-F43B6CB99EFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3838575" y="10563225"/>
+          <a:ext cx="4267200" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タスクトレイのアイコンを右クリックすることでサイズの調整と配置の切り替えを行うことができます。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>You can adjust the size and toggle the placement by right-clicking on the task tray icon.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D58BB8-65BF-46E3-910F-71D39BF20A6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1638300" y="10887075"/>
+          <a:ext cx="2209800" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="四角形: 角を丸くする 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A64DFB-6A18-52B8-8047-F716FAA30F0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1247775" y="11010900"/>
+          <a:ext cx="333375" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>359299</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CB21C04-87BB-0043-752F-95A9B79FB94C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="2705100"/>
+          <a:ext cx="7131574" cy="7705725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="四角形: 角を丸くする 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D83FD92-6484-4E50-82CB-B012F4708C05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3790950" y="3667124"/>
+          <a:ext cx="1076325" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19C32CF8-8A6D-4FA7-B975-4B1280675FBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5695950" y="3152775"/>
+          <a:ext cx="3181350" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>各日付にはテキストを書き込むことができます。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>You can write text on each date</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6A79DF6-8D30-409A-AE3C-BFF8D98A3BDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4895850" y="3467100"/>
+          <a:ext cx="800100" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="四角形: 角を丸くする 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0E14E89-2154-4A3B-9529-06F040039AE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181351" y="6353174"/>
+          <a:ext cx="609600" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="四角形: 角を丸くする 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F902DE-D6A3-4A48-AE69-015A02233D5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857751" y="6343649"/>
+          <a:ext cx="609600" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FEBA04D-3E9B-4790-8B6E-912771293026}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2990849" y="5143500"/>
+          <a:ext cx="3857625" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>このボタンを押すことで月を切り替えることができます。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>You can switch months by pressing this button.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E82ACC40-7A34-49D0-8FBE-41B64EA05229}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3667125" y="5791200"/>
+          <a:ext cx="323850" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79C7E21-ECAC-4EBA-A0C6-37FB8081FB34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4829175" y="5781675"/>
+          <a:ext cx="238125" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>593578</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>14325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5433BB4B-17F9-4BD3-862B-1D7D8B21E2E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="20002500"/>
+          <a:ext cx="1965178" cy="966825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="四角形: 角を丸くする 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D496C40D-7596-4623-82E7-EE032970C8E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981075" y="19954875"/>
+          <a:ext cx="438150" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -658,10 +1628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E60"/>
+  <dimension ref="B2:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -701,33 +1671,43 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
-      <c r="E53" t="s">
+    <row r="55" spans="2:5">
+      <c r="E55" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
-      <c r="E54" t="s">
+    <row r="56" spans="2:5">
+      <c r="E56" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="2:5">
-      <c r="E55" t="s">
+    <row r="57" spans="2:5">
+      <c r="E57" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="58" spans="2:5">
-      <c r="B58" s="1" t="s">
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="2:5">
-      <c r="B59" t="s">
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="2:5">
-      <c r="B60" t="s">
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
         <v>11</v>
       </c>
     </row>
@@ -735,6 +1715,9 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="67" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="45" max="16383" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/TwoMonthsCalendar/document/Readme_使い方.xlsx
+++ b/TwoMonthsCalendar/document/Readme_使い方.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\necot\Documents\03_cathut\git\TwoMonthsCalendar\TwoMonthsCalendar\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1240B39-76C2-4C1A-AD81-C4910F442FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E386507-0163-4C1A-844B-BF02BEC4F9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>TwoMonthesCalendar.exeをダブルクリックすることでデスクトップ上にカレンダーが表示されます。</t>
     <phoneticPr fontId="1"/>
@@ -123,6 +123,115 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>祝日の表示について</t>
+    <rPh sb="0" eb="2">
+      <t>シュクジツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>祝日は日本の祝日に対応しています。</t>
+    <rPh sb="0" eb="2">
+      <t>シュクジツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュクジツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Holidays JP API（https://holidays-jp.github.io/）というAPIを使用しているので、</t>
+    <rPh sb="54" eb="56">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こちらのサービスの状況により、表示できなくなる場合があります。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、インターネットへの非接続時は祝日の表示はされません。</t>
+    <rPh sb="12" eb="13">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>セツゾクジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュクジツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Holidays JP APIの仕様により祝日の表示は昨年、今年、来年のみとなります。</t>
+    <rPh sb="16" eb="18">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュクジツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクネン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コトシ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ライネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Display of National Holidays</t>
+  </si>
+  <si>
+    <t>Holidays are supported for Japanese holidays.</t>
+  </si>
+  <si>
+    <t>Since we use an API called Holidays JP API (https://holidays-jp.github.io/)</t>
+  </si>
+  <si>
+    <t>Depending on the status of this service, it may not be possible to display the holidays.</t>
+  </si>
+  <si>
+    <t>Due to the specification of Holidays JP API, holidays are displayed only for last year, this year, and next year.</t>
+  </si>
+  <si>
+    <t>Holidays are not displayed when there is no connection to the Internet.</t>
+  </si>
+  <si>
+    <t>５．注意事項（Precautions）</t>
+    <rPh sb="2" eb="6">
+      <t>チュウイジコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -176,9 +285,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1243,14 +1355,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>593578</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>14325</xdr:rowOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>157200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1279,7 +1391,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="20002500"/>
+          <a:off x="685800" y="18954750"/>
           <a:ext cx="1965178" cy="966825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1298,14 +1410,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1320,7 +1432,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981075" y="19954875"/>
+          <a:off x="981075" y="18907125"/>
           <a:ext cx="438150" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1360,6 +1472,381 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47233F40-7ABB-65B3-3919-4FA4F7CBC892}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2790825" y="7934325"/>
+          <a:ext cx="1047750" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9996AD9-1790-A0C8-3CF3-B358AD3846E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762499" y="7296150"/>
+          <a:ext cx="4000501" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>各日付部分でホイールを押し込みながら移動することで</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>カレンダー全体を移動することができます。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B7FADA7-1766-FF2D-ACCE-82D178EA2838}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3895725" y="7610475"/>
+          <a:ext cx="866774" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>384901</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>8767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>192517</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>235483</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBF6E7E1-FB9A-F438-B834-DCF761A3269B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="19345694">
+          <a:off x="4499701" y="8343142"/>
+          <a:ext cx="1179216" cy="1179216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形: 角を丸くする 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE44A36A-6AEA-4DC7-AB82-4E8B9DCEE7D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4791075" y="8629650"/>
+          <a:ext cx="361950" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9594B420-55AB-49E8-A9A2-1E48CC13B884}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5019675" y="7934325"/>
+          <a:ext cx="342900" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1628,10 +2115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E80"/>
+  <dimension ref="B2:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1696,19 +2183,84 @@
         <v>14</v>
       </c>
     </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="1" t="s">
-        <v>12</v>
+      <c r="B78" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
